--- a/Copy of HLR BANK (Autosaved).xlsx
+++ b/Copy of HLR BANK (Autosaved).xlsx
@@ -4,13 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7140" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="5" r:id="rId1"/>
     <sheet name="TESTCASE" sheetId="6" r:id="rId2"/>
     <sheet name="SCENARIO" sheetId="8" r:id="rId3"/>
+    <sheet name="defect report " sheetId="10" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TESTCASE!$A$1:$R$45</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="272">
   <si>
     <t>Functionality Name</t>
   </si>
@@ -1036,12 +1040,45 @@
   <si>
     <t>Test scenario</t>
   </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Testcase ID</t>
+  </si>
+  <si>
+    <t>Defect Summary</t>
+  </si>
+  <si>
+    <t>Defect Description</t>
+  </si>
+  <si>
+    <t>Reproduced Steps</t>
+  </si>
+  <si>
+    <t>Defect Severity</t>
+  </si>
+  <si>
+    <t>Defect Priority</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>suchak radhi</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1163,8 +1200,32 @@
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1189,8 +1250,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1213,11 +1286,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,6 +1378,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2131,10 +2240,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="E1048419" workbookViewId="0">
+      <pane ySplit="1965" topLeftCell="A1048469"/>
+      <selection activeCell="J1048419" sqref="J1048419"/>
+      <selection pane="bottomLeft" activeCell="E1048513" sqref="E1048513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1"/>
@@ -2182,7 +2294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="29.25" customHeight="1">
+    <row r="2" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2212,7 +2324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="29.25" customHeight="1">
+    <row r="3" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2242,7 +2354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="29.25" customHeight="1">
+    <row r="4" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2272,7 +2384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="29.25" customHeight="1">
+    <row r="5" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2302,7 +2414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="29.25" customHeight="1">
+    <row r="6" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2332,7 +2444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="29.25" customHeight="1">
+    <row r="7" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2362,7 +2474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="29.25" customHeight="1">
+    <row r="8" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2392,7 +2504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="29.25" customHeight="1">
+    <row r="9" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2422,7 +2534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="29.25" customHeight="1">
+    <row r="10" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2452,7 +2564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="29.25" customHeight="1">
+    <row r="11" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2482,7 +2594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="29.25" customHeight="1">
+    <row r="12" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2512,7 +2624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="29.25" customHeight="1">
+    <row r="13" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2572,7 +2684,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="29.25" customHeight="1">
+    <row r="15" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -2632,7 +2744,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="29.25" customHeight="1">
+    <row r="17" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -2692,7 +2804,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="29.25" customHeight="1">
+    <row r="19" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2752,7 +2864,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="29.25" customHeight="1">
+    <row r="21" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2782,7 +2894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="29.25" customHeight="1">
+    <row r="22" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2812,7 +2924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="29.25" customHeight="1">
+    <row r="23" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2842,7 +2954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="29.25" customHeight="1">
+    <row r="24" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2872,7 +2984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="29.25" customHeight="1">
+    <row r="25" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2902,7 +3014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="29.25" customHeight="1">
+    <row r="26" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2932,7 +3044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="29.25" customHeight="1">
+    <row r="27" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2992,7 +3104,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="29.25" customHeight="1">
+    <row r="29" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -3022,7 +3134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="29.25" customHeight="1">
+    <row r="30" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -3052,7 +3164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="29.25" customHeight="1">
+    <row r="31" spans="1:10" ht="29.25" hidden="1" customHeight="1">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -3206,7 +3318,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="29.25" customHeight="1">
+    <row r="36" spans="1:18" ht="29.25" hidden="1" customHeight="1">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -3236,7 +3348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="29.25" customHeight="1">
+    <row r="37" spans="1:18" ht="29.25" hidden="1" customHeight="1">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -3363,7 +3475,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="29.25" customHeight="1">
+    <row r="41" spans="1:18" ht="29.25" hidden="1" customHeight="1">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -3395,7 +3507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="29.25" customHeight="1">
+    <row r="42" spans="1:18" ht="29.25" hidden="1" customHeight="1">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -3459,7 +3571,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="29.25" customHeight="1">
+    <row r="44" spans="1:18" ht="29.25" hidden="1" customHeight="1">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -3489,7 +3601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="29.25" customHeight="1">
+    <row r="45" spans="1:18" ht="29.25" hidden="1" customHeight="1">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -4288,6 +4400,25 @@
       <c r="J109" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R45">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="113"/>
+        <filter val="115"/>
+        <filter val="117"/>
+        <filter val="119"/>
+        <filter val="127"/>
+        <filter val="131"/>
+        <filter val="132"/>
+        <filter val="133"/>
+        <filter val="134"/>
+        <filter val="137"/>
+        <filter val="138"/>
+        <filter val="139"/>
+        <filter val="142"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:J100">
     <sortCondition ref="A2:A100"/>
   </sortState>
@@ -4304,7 +4435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -5689,4 +5820,592 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="112.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="29" customFormat="1" ht="36.6" customHeight="1">
+      <c r="A1" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="31" customFormat="1" ht="60">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30">
+        <v>13</v>
+      </c>
+      <c r="C2" s="30">
+        <v>113</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="31" customFormat="1" ht="135">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30">
+        <v>15</v>
+      </c>
+      <c r="C3" s="30">
+        <v>115</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="31" customFormat="1" ht="135">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30">
+        <v>17</v>
+      </c>
+      <c r="C4" s="30">
+        <v>117</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="31" customFormat="1" ht="150">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30">
+        <v>19</v>
+      </c>
+      <c r="C5" s="30">
+        <v>119</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="31" customFormat="1" ht="120">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30">
+        <v>27</v>
+      </c>
+      <c r="C6" s="30">
+        <v>127</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="31" customFormat="1" ht="195">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30">
+        <v>31</v>
+      </c>
+      <c r="C7" s="30">
+        <v>131</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="31" customFormat="1" ht="225">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30">
+        <v>32</v>
+      </c>
+      <c r="C8" s="30">
+        <v>132</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="31" customFormat="1" ht="195">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30">
+        <v>33</v>
+      </c>
+      <c r="C9" s="30">
+        <v>133</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="31" customFormat="1" ht="195">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30">
+        <v>34</v>
+      </c>
+      <c r="C10" s="30">
+        <v>134</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="31" customFormat="1" ht="195">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30">
+        <v>37</v>
+      </c>
+      <c r="C11" s="30">
+        <v>137</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="31" customFormat="1" ht="195">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30">
+        <v>38</v>
+      </c>
+      <c r="C12" s="30">
+        <v>138</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="31" customFormat="1" ht="225">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30">
+        <v>39</v>
+      </c>
+      <c r="C13" s="30">
+        <v>139</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="31" customFormat="1" ht="225">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30">
+        <v>42</v>
+      </c>
+      <c r="C14" s="30">
+        <v>142</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>